--- a/autres/BDD-Skilleat.xlsx
+++ b/autres/BDD-Skilleat.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AFCI\Documents\000-Skilleat\autres\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AFCI\Documents\Skilleat\autres\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B92E8121-7F53-4B6B-A5AB-25ED3D00D5DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71A79D9C-3BEA-475F-9F84-512F52DD4D5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{5E100F81-54E2-4036-BFD6-3583D6F8B6A9}"/>
+    <workbookView xWindow="19080" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{5E100F81-54E2-4036-BFD6-3583D6F8B6A9}"/>
   </bookViews>
   <sheets>
     <sheet name="Chef" sheetId="1" r:id="rId1"/>
@@ -334,9 +334,6 @@
     <t>est-actif</t>
   </si>
   <si>
-    <t>Originaire de Naples, Virginie partage avec passion les secrets de la cuisine italienne transmise par sa nonna. Avec lui, les pâtes fraîches deviennent un moment de convivialité, et chaque risotto un prétexte à l’échange.</t>
-  </si>
-  <si>
     <t>Pâtissière de formation, Flora aime transmettre la rigueur et la poésie de la pâtisserie française. Elle vous guide pas à pas dans la réalisation de douceurs élégantes, toujours dans la bonne humeur.</t>
   </si>
   <si>
@@ -479,6 +476,9 @@
   </si>
   <si>
     <t>spécialité</t>
+  </si>
+  <si>
+    <t>Originaire de Naples, Virginie partage avec passion les secrets de la cuisine italienne transmise par sa nonna. Avec elle, les pâtes fraîches deviennent un moment de convivialité, et chaque risotto un prétexte à l’échange.</t>
   </si>
 </sst>
 </file>
@@ -1207,8 +1207,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2CE9348-1517-42DD-9B8B-6EB3156DA123}">
   <dimension ref="A1:K42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1317,7 +1317,7 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B10" s="6" t="s">
         <v>22</v>
@@ -1466,7 +1466,7 @@
         <v>76</v>
       </c>
       <c r="G22" s="21" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H22" s="19" t="s">
         <v>72</v>
@@ -1493,7 +1493,7 @@
         <v>79</v>
       </c>
       <c r="G23" s="25" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H23" s="24" t="s">
         <v>74</v>
@@ -1520,7 +1520,7 @@
         <v>53</v>
       </c>
       <c r="G24" s="25" t="s">
-        <v>99</v>
+        <v>147</v>
       </c>
       <c r="H24" s="24" t="s">
         <v>54</v>
@@ -1547,7 +1547,7 @@
         <v>58</v>
       </c>
       <c r="G25" s="25" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H25" s="24" t="s">
         <v>59</v>
@@ -1574,7 +1574,7 @@
         <v>62</v>
       </c>
       <c r="G26" s="25" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H26" s="24" t="s">
         <v>63</v>
@@ -1601,7 +1601,7 @@
         <v>86</v>
       </c>
       <c r="G27" s="25" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H27" s="24" t="s">
         <v>66</v>
@@ -1628,7 +1628,7 @@
         <v>89</v>
       </c>
       <c r="G28" s="25" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H28" s="24" t="s">
         <v>68</v>
@@ -1655,7 +1655,7 @@
         <v>92</v>
       </c>
       <c r="G29" s="25" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H29" s="24" t="s">
         <v>69</v>
@@ -1682,13 +1682,13 @@
         <v>93</v>
       </c>
       <c r="G30" s="25" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H30" s="24" t="s">
         <v>71</v>
       </c>
       <c r="I30" s="25" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J30" s="24"/>
       <c r="K30" s="26"/>
@@ -1709,7 +1709,7 @@
         <v>96</v>
       </c>
       <c r="G31" s="29" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H31" s="28" t="s">
         <v>87</v>
@@ -1774,16 +1774,16 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="31" t="s">
+        <v>112</v>
+      </c>
+      <c r="B1" s="31" t="s">
         <v>113</v>
-      </c>
-      <c r="B1" s="31" t="s">
-        <v>114</v>
       </c>
       <c r="C1" s="31" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="45">
+    <row r="2" spans="1:3" ht="30">
       <c r="A2" s="6" t="s">
         <v>2</v>
       </c>
@@ -1791,187 +1791,187 @@
         <v>37</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="6" t="s">
         <v>115</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="30">
-      <c r="A3" s="6" t="s">
-        <v>116</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>22</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="30">
+      <c r="A4" s="6" t="s">
         <v>117</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="45">
-      <c r="A4" s="6" t="s">
-        <v>118</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>26</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="6" t="s">
         <v>119</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="30">
-      <c r="A5" s="6" t="s">
-        <v>120</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>19</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="6" t="s">
         <v>121</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="30">
-      <c r="A6" s="6" t="s">
-        <v>122</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>9</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="30">
+      <c r="A7" s="6" t="s">
         <v>123</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="60">
-      <c r="A7" s="6" t="s">
-        <v>124</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>37</v>
       </c>
       <c r="C7" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="6" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" ht="30">
-      <c r="A8" s="6" t="s">
+      <c r="B8" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="C8" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="C8" s="1" t="s">
+    </row>
+    <row r="9" spans="1:3" ht="30">
+      <c r="A9" s="6" t="s">
         <v>128</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="75">
-      <c r="A9" s="6" t="s">
-        <v>129</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>9</v>
       </c>
       <c r="C9" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="30">
+      <c r="A10" s="6" t="s">
         <v>130</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="45">
-      <c r="A10" s="6" t="s">
-        <v>131</v>
       </c>
       <c r="B10" s="6" t="s">
         <v>37</v>
       </c>
       <c r="C10" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="6" t="s">
         <v>132</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="30">
-      <c r="A11" s="6" t="s">
-        <v>133</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>44</v>
       </c>
       <c r="C11" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="30">
+      <c r="A12" s="6" t="s">
         <v>134</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="45">
-      <c r="A12" s="6" t="s">
-        <v>135</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>22</v>
       </c>
       <c r="C12" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="30">
+      <c r="A13" s="6" t="s">
         <v>136</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="60">
-      <c r="A13" s="6" t="s">
-        <v>137</v>
       </c>
       <c r="B13" s="6" t="s">
         <v>22</v>
       </c>
       <c r="C13" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="25.5">
+      <c r="A14" s="6" t="s">
         <v>138</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="30">
-      <c r="A14" s="6" t="s">
-        <v>139</v>
       </c>
       <c r="B14" s="6" t="s">
         <v>37</v>
       </c>
       <c r="C14" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="30">
+      <c r="A15" s="6" t="s">
         <v>140</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="45">
-      <c r="A15" s="6" t="s">
-        <v>141</v>
       </c>
       <c r="B15" s="6" t="s">
         <v>9</v>
       </c>
       <c r="C15" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="45">
+      <c r="A16" s="6" t="s">
         <v>142</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="90">
-      <c r="A16" s="6" t="s">
-        <v>143</v>
       </c>
       <c r="B16" s="6" t="s">
         <v>22</v>
       </c>
       <c r="C16" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="30">
+      <c r="A17" s="6" t="s">
         <v>144</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="60">
-      <c r="A17" s="6" t="s">
-        <v>145</v>
       </c>
       <c r="B17" s="6" t="s">
         <v>47</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
   </sheetData>
